--- a/Jogos_do_Dia/2023-09-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -787,13 +787,13 @@
         <v>75</v>
       </c>
       <c r="G2">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I2">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -859,7 +859,7 @@
         <v>2.54</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF2">
         <v>1.58</v>
@@ -871,7 +871,7 @@
         <v>2.65</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -894,13 +894,13 @@
         <v>76</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I3">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -915,10 +915,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -966,7 +966,7 @@
         <v>1.82</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF3">
         <v>1.49</v>
@@ -978,7 +978,7 @@
         <v>2.41</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1108,13 +1108,13 @@
         <v>78</v>
       </c>
       <c r="G5">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H5">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J5">
         <v>1.07</v>
@@ -1123,16 +1123,16 @@
         <v>6.7</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M5">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="O5">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P5">
         <v>1.53</v>
@@ -1215,13 +1215,13 @@
         <v>79</v>
       </c>
       <c r="G6">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I6">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1236,10 +1236,10 @@
         <v>2.8</v>
       </c>
       <c r="N6">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="O6">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P6">
         <v>1.53</v>
@@ -1429,13 +1429,13 @@
         <v>81</v>
       </c>
       <c r="G8">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H8">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I8">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J8">
         <v>1.1</v>
@@ -1450,10 +1450,10 @@
         <v>2.4</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="O8">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P8">
         <v>1.52</v>
@@ -1539,10 +1539,10 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I9">
-        <v>2.37</v>
+        <v>2.48</v>
       </c>
       <c r="J9">
         <v>1.07</v>
@@ -1557,10 +1557,10 @@
         <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="O9">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="P9">
         <v>1.51</v>
@@ -1750,13 +1750,13 @@
         <v>84</v>
       </c>
       <c r="G11">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="H11">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="I11">
-        <v>3.77</v>
+        <v>3.95</v>
       </c>
       <c r="J11">
         <v>1.1</v>
@@ -1771,10 +1771,10 @@
         <v>2.48</v>
       </c>
       <c r="N11">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P11">
         <v>1.57</v>
@@ -1822,7 +1822,7 @@
         <v>3.5</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF11">
         <v>1.25</v>
@@ -1857,13 +1857,13 @@
         <v>85</v>
       </c>
       <c r="G12">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I12">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J12">
         <v>1.05</v>
@@ -1878,10 +1878,10 @@
         <v>2.61</v>
       </c>
       <c r="N12">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O12">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="P12">
         <v>1.51</v>
@@ -1964,13 +1964,13 @@
         <v>86</v>
       </c>
       <c r="G13">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="H13">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="I13">
-        <v>4.77</v>
+        <v>4.81</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>2.29</v>
       </c>
       <c r="N13">
-        <v>3.1</v>
+        <v>2.56</v>
       </c>
       <c r="O13">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2071,13 +2071,13 @@
         <v>87</v>
       </c>
       <c r="G14">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="O14">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>88</v>
       </c>
       <c r="G15">
-        <v>2.43</v>
+        <v>2.28</v>
       </c>
       <c r="H15">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="I15">
-        <v>2.86</v>
+        <v>3.35</v>
       </c>
       <c r="J15">
         <v>1.11</v>
@@ -2193,16 +2193,16 @@
         <v>6</v>
       </c>
       <c r="L15">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M15">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="N15">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="O15">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P15">
         <v>1.57</v>
@@ -2392,13 +2392,13 @@
         <v>90</v>
       </c>
       <c r="G17">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="H17">
-        <v>2.83</v>
+        <v>3.08</v>
       </c>
       <c r="I17">
-        <v>3.54</v>
+        <v>3.88</v>
       </c>
       <c r="J17">
         <v>1.06</v>
@@ -2455,28 +2455,28 @@
         <v>3.31</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2499,13 +2499,13 @@
         <v>91</v>
       </c>
       <c r="G18">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="H18">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="O18">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>92</v>
       </c>
       <c r="G19">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="H19">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="I19">
-        <v>3.28</v>
+        <v>3.55</v>
       </c>
       <c r="J19">
         <v>1.04</v>
@@ -2627,10 +2627,10 @@
         <v>5.5</v>
       </c>
       <c r="N19">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O19">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P19">
         <v>1.25</v>

--- a/Jogos_do_Dia/2023-09-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -217,12 +217,12 @@
     <t>Atlético GO</t>
   </si>
   <si>
+    <t>Operário PR</t>
+  </si>
+  <si>
     <t>Real Valladolid</t>
   </si>
   <si>
-    <t>Operário PR</t>
-  </si>
-  <si>
     <t>Sportivo Luqueño</t>
   </si>
   <si>
@@ -271,10 +271,10 @@
     <t>Juventude</t>
   </si>
   <si>
+    <t>EC São José</t>
+  </si>
+  <si>
     <t>Elche CF</t>
-  </si>
-  <si>
-    <t>EC São José</t>
   </si>
   <si>
     <t>Tacuary</t>
@@ -787,13 +787,13 @@
         <v>75</v>
       </c>
       <c r="G2">
-        <v>1.85</v>
+        <v>2.19</v>
       </c>
       <c r="H2">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I2">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -808,10 +808,10 @@
         <v>4.5</v>
       </c>
       <c r="N2">
-        <v>1.61</v>
+        <v>2.03</v>
       </c>
       <c r="O2">
-        <v>2.23</v>
+        <v>1.83</v>
       </c>
       <c r="P2">
         <v>1.3</v>
@@ -835,10 +835,10 @@
         <v>1.6</v>
       </c>
       <c r="W2">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="X2">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="Y2">
         <v>1.5</v>
@@ -894,13 +894,13 @@
         <v>76</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2.49</v>
       </c>
       <c r="H3">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.15</v>
+        <v>2.68</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -915,10 +915,10 @@
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="O3">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -942,10 +942,10 @@
         <v>1.35</v>
       </c>
       <c r="W3">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="X3">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="Y3">
         <v>1.15</v>
@@ -1108,13 +1108,13 @@
         <v>78</v>
       </c>
       <c r="G5">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="I5">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="J5">
         <v>1.07</v>
@@ -1123,16 +1123,16 @@
         <v>6.7</v>
       </c>
       <c r="L5">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N5">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="O5">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="P5">
         <v>1.53</v>
@@ -1156,10 +1156,10 @@
         <v>1.78</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Y5">
         <v>1.32</v>
@@ -1215,13 +1215,13 @@
         <v>79</v>
       </c>
       <c r="G6">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H6">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J6">
         <v>1.05</v>
@@ -1236,10 +1236,10 @@
         <v>2.8</v>
       </c>
       <c r="N6">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="O6">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P6">
         <v>1.53</v>
@@ -1263,10 +1263,10 @@
         <v>1.97</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X6">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Y6">
         <v>1.34</v>
@@ -1429,13 +1429,13 @@
         <v>81</v>
       </c>
       <c r="G8">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H8">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J8">
         <v>1.1</v>
@@ -1450,10 +1450,10 @@
         <v>2.4</v>
       </c>
       <c r="N8">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P8">
         <v>1.52</v>
@@ -1539,10 +1539,10 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2.48</v>
+        <v>2.37</v>
       </c>
       <c r="J9">
         <v>1.07</v>
@@ -1557,10 +1557,10 @@
         <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="O9">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="P9">
         <v>1.51</v>
@@ -1750,13 +1750,13 @@
         <v>84</v>
       </c>
       <c r="G11">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H11">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J11">
         <v>1.1</v>
@@ -1771,10 +1771,10 @@
         <v>2.48</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O11">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P11">
         <v>1.57</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>45179</v>
@@ -1848,7 +1848,7 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
@@ -1857,96 +1857,96 @@
         <v>85</v>
       </c>
       <c r="G12">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="H12">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I12">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="J12">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="M12">
-        <v>2.61</v>
+        <v>2.29</v>
       </c>
       <c r="N12">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="P12">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y12">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="Z12">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AA12">
-        <v>2.9</v>
+        <v>3.06</v>
       </c>
       <c r="AB12">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>2.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>45179</v>
@@ -1955,7 +1955,7 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -1964,91 +1964,91 @@
         <v>86</v>
       </c>
       <c r="G13">
+        <v>2.15</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3.4</v>
+      </c>
+      <c r="J13">
+        <v>1.05</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>1.42</v>
+      </c>
+      <c r="M13">
+        <v>2.61</v>
+      </c>
+      <c r="N13">
+        <v>2.25</v>
+      </c>
+      <c r="O13">
+        <v>1.53</v>
+      </c>
+      <c r="P13">
+        <v>1.51</v>
+      </c>
+      <c r="Q13">
+        <v>2.46</v>
+      </c>
+      <c r="R13">
+        <v>2.02</v>
+      </c>
+      <c r="S13">
+        <v>1.74</v>
+      </c>
+      <c r="T13">
+        <v>1.3</v>
+      </c>
+      <c r="U13">
+        <v>1.34</v>
+      </c>
+      <c r="V13">
+        <v>1.69</v>
+      </c>
+      <c r="W13">
+        <v>1.5</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1.6</v>
+      </c>
+      <c r="Z13">
+        <v>1.3</v>
+      </c>
+      <c r="AA13">
+        <v>2.9</v>
+      </c>
+      <c r="AB13">
+        <v>1.79</v>
+      </c>
+      <c r="AC13">
+        <v>9.1</v>
+      </c>
+      <c r="AD13">
+        <v>2.4</v>
+      </c>
+      <c r="AE13">
+        <v>1.21</v>
+      </c>
+      <c r="AF13">
+        <v>1.42</v>
+      </c>
+      <c r="AG13">
         <v>1.75</v>
       </c>
-      <c r="H13">
-        <v>3.34</v>
-      </c>
-      <c r="I13">
-        <v>4.81</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1.56</v>
-      </c>
-      <c r="M13">
-        <v>2.29</v>
-      </c>
-      <c r="N13">
-        <v>2.56</v>
-      </c>
-      <c r="O13">
-        <v>1.45</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>2.4</v>
-      </c>
-      <c r="X13">
-        <v>1.2</v>
-      </c>
-      <c r="Y13">
-        <v>1.87</v>
-      </c>
-      <c r="Z13">
-        <v>1.19</v>
-      </c>
-      <c r="AA13">
-        <v>3.06</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2071,13 +2071,13 @@
         <v>87</v>
       </c>
       <c r="G14">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="H14">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2178,13 +2178,13 @@
         <v>88</v>
       </c>
       <c r="G15">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="H15">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="I15">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1.11</v>
@@ -2193,16 +2193,16 @@
         <v>6</v>
       </c>
       <c r="L15">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M15">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="N15">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="O15">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P15">
         <v>1.57</v>
@@ -2392,13 +2392,13 @@
         <v>90</v>
       </c>
       <c r="G17">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="H17">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>3.88</v>
+        <v>3.75</v>
       </c>
       <c r="J17">
         <v>1.06</v>
@@ -2413,10 +2413,10 @@
         <v>2.54</v>
       </c>
       <c r="N17">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="O17">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P17">
         <v>1.53</v>
@@ -2499,13 +2499,13 @@
         <v>91</v>
       </c>
       <c r="G18">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="H18">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I18">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O18">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>92</v>
       </c>
       <c r="G19">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H19">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I19">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J19">
         <v>1.04</v>
@@ -2627,10 +2627,10 @@
         <v>5.5</v>
       </c>
       <c r="N19">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O19">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P19">
         <v>1.25</v>
